--- a/www/data/contrasenas_nl.xlsx
+++ b/www/data/contrasenas_nl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\Proyectos\QUIPU\Desarrollo de Aplicaciones R Shiny\quipu_monterrey\www\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\Proyectos\QUIPU\Desarrollo de Aplicaciones R Shiny\boleta_gpe\www\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99FF646-6814-407E-A248-9EA85A9A338D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC4DD1-73AC-4D68-A0F7-71D44ECEA426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3585" windowWidth="29040" windowHeight="15720" xr2:uid="{EB737FD3-E549-E840-80B3-59AC9D2D9FB9}"/>
+    <workbookView xWindow="-22440" yWindow="1050" windowWidth="17280" windowHeight="8880" xr2:uid="{EB737FD3-E549-E840-80B3-59AC9D2D9FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="contraseñas_nl" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>user</t>
   </si>
@@ -55,33 +55,6 @@
   </si>
   <si>
     <t>usuario_nuevo_leon</t>
-  </si>
-  <si>
-    <t>usuario_monterrey</t>
-  </si>
-  <si>
-    <t>R.Ramos</t>
-  </si>
-  <si>
-    <t>L.Torres</t>
-  </si>
-  <si>
-    <t>ProyectoMty</t>
-  </si>
-  <si>
-    <t>ProyectoMty1</t>
-  </si>
-  <si>
-    <t>nuevoLeonSol456</t>
-  </si>
-  <si>
-    <t>mtyProyecto2024</t>
-  </si>
-  <si>
-    <t>cerroSillaMty456</t>
-  </si>
-  <si>
-    <t>nuevoLeonTorre789</t>
   </si>
   <si>
     <t>rich</t>
@@ -459,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46A9392-CF1B-BE4D-9F7E-2CFC430EDDC8}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -507,56 +480,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
